--- a/ExerciseDetection/Summary of Exercises Final.xlsx
+++ b/ExerciseDetection/Summary of Exercises Final.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Step 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Step 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Step 3" sheetId="5" r:id="rId3"/>
-    <sheet name="Step 4" sheetId="6" r:id="rId4"/>
+    <sheet name="Step 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Step 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Step 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -265,15 +271,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,12 +293,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,16 +596,16 @@
     <col min="12" max="12" width="8" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="34" width="9.140625" style="12" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="12"/>
+    <col min="16" max="35" width="9.140625" style="12" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -612,11 +620,11 @@
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -636,24 +644,24 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="15"/>
@@ -663,7 +671,7 @@
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
@@ -702,24 +710,30 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>0.01</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.38775510000000002</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="23">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="5"/>
@@ -730,36 +744,48 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="24">
+        <v>0.33333333999999998</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>1E-3</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>0.40816328000000002</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="5"/>
@@ -770,34 +796,46 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>1E-4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>0.65306120000000001</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="5"/>
     </row>
@@ -807,36 +845,48 @@
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="8"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="8"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>0.01</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.65306120000000001</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>0.61224489999999998</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="5"/>
     </row>
@@ -846,36 +896,48 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="14">
+      <c r="B13" s="16">
         <v>1E-3</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0.79591835</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="5"/>
@@ -886,34 +948,46 @@
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="8"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="8"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="8"/>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>1E-4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="N15" s="9"/>
       <c r="O15" s="5"/>
     </row>
@@ -923,36 +997,48 @@
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="8"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="8"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="8"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="16">
         <v>0.01</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="N17" s="9"/>
       <c r="O17" s="5"/>
     </row>
@@ -962,33 +1048,45 @@
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="14">
+      <c r="B19" s="16">
         <v>1E-3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="5"/>
@@ -999,36 +1097,48 @@
       <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="14">
+      <c r="B21" s="16">
         <v>1E-4</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>0.67346936000000002</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="5"/>
@@ -1039,25 +1149,31 @@
       <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -1072,11 +1188,11 @@
       <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1096,24 +1212,24 @@
       <c r="T25" s="15"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="21" t="s">
         <v>5</v>
       </c>
       <c r="M26" s="15"/>
@@ -1123,7 +1239,7 @@
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="11" t="s">
         <v>6</v>
       </c>
@@ -1162,24 +1278,30 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="16">
         <v>0.01</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>0.26530611999999998</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="5"/>
@@ -1190,36 +1312,48 @@
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="14">
+      <c r="B30" s="16">
         <v>1E-3</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>0.53061223000000002</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="5"/>
@@ -1230,34 +1364,46 @@
       <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="14">
+      <c r="B32" s="16">
         <v>1E-4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>0.67346936000000002</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>0.65306120000000001</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="5"/>
     </row>
@@ -1267,36 +1413,48 @@
       <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="8"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I33" s="10"/>
       <c r="J33" s="8"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="8"/>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="16">
         <v>0.01</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>0.63265305999999999</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="J34" s="9"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>0.51020410000000005</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="5"/>
     </row>
@@ -1306,36 +1464,48 @@
       <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="8"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="J35" s="8"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2">
+        <v>0.33333333999999998</v>
+      </c>
       <c r="M35" s="10"/>
       <c r="N35" s="8"/>
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="14">
+      <c r="B36" s="16">
         <v>1E-3</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="23">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="5"/>
@@ -1346,34 +1516,46 @@
       <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="24">
+        <v>0.33333333999999998</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="8"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="8"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="14">
+      <c r="B38" s="16">
         <v>1E-4</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="N38" s="9"/>
       <c r="O38" s="5"/>
     </row>
@@ -1383,36 +1565,48 @@
       <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="8"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="8"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M39" s="10"/>
       <c r="N39" s="8"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="16">
         <v>0.01</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="23">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="J40" s="9"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="N40" s="9"/>
       <c r="O40" s="5"/>
     </row>
@@ -1422,33 +1616,45 @@
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="24">
+        <v>0.38095240000000002</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="14">
+      <c r="B42" s="16">
         <v>1E-3</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1">
+        <v>0.65306120000000001</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="5"/>
@@ -1459,36 +1665,48 @@
       <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="14">
+      <c r="B44" s="16">
         <v>1E-4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="5"/>
@@ -1499,25 +1717,31 @@
       <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -1532,11 +1756,11 @@
       <c r="O47" s="15"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -1556,24 +1780,24 @@
       <c r="T48" s="15"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="20" t="s">
+      <c r="L49" s="21" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="15"/>
@@ -1583,7 +1807,7 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="11" t="s">
         <v>6</v>
       </c>
@@ -1622,24 +1846,30 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="16">
         <v>0.01</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="5"/>
@@ -1650,36 +1880,48 @@
       <c r="C52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
-      <c r="B53" s="14">
+      <c r="B53" s="16">
         <v>1E-3</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1">
+        <v>0.3265306</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <v>0.3265306</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1">
+        <v>0.36734694000000001</v>
+      </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="5"/>
@@ -1690,34 +1932,46 @@
       <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="14">
+      <c r="B55" s="16">
         <v>1E-4</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>0.38775510000000002</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <v>0.42857142999999998</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="23">
+        <v>0.46938776999999998</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="5"/>
     </row>
@@ -1727,36 +1981,48 @@
       <c r="C56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="E56" s="10"/>
       <c r="F56" s="8"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="8"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="24">
+        <v>0.33333333999999998</v>
+      </c>
       <c r="M56" s="10"/>
       <c r="N56" s="8"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="16">
         <v>0.01</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="23">
+        <v>0.59183675000000002</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>0.59183675000000002</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1">
+        <v>0.44897959999999998</v>
+      </c>
       <c r="N57" s="9"/>
       <c r="O57" s="5"/>
     </row>
@@ -1766,36 +2032,48 @@
       <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="24">
+        <v>0.38095240000000002</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="8"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="I58" s="10"/>
       <c r="J58" s="8"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M58" s="10"/>
       <c r="N58" s="8"/>
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
-      <c r="B59" s="14">
+      <c r="B59" s="16">
         <v>1E-3</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="5"/>
@@ -1806,34 +2084,46 @@
       <c r="C60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="8"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="8"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="M60" s="2"/>
       <c r="N60" s="8"/>
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="14">
+      <c r="B61" s="16">
         <v>1E-4</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1">
+        <v>0.61224489999999998</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <v>0.63265305999999999</v>
+      </c>
       <c r="J61" s="9"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1">
+        <v>0.59183675000000002</v>
+      </c>
       <c r="N61" s="9"/>
       <c r="O61" s="5"/>
     </row>
@@ -1843,36 +2133,48 @@
       <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="E62" s="10"/>
       <c r="F62" s="8"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I62" s="10"/>
       <c r="J62" s="8"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="M62" s="10"/>
       <c r="N62" s="8"/>
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="16">
         <v>0.01</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="J63" s="9"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="N63" s="9"/>
       <c r="O63" s="5"/>
     </row>
@@ -1882,33 +2184,45 @@
       <c r="C64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="14">
+      <c r="B65" s="16">
         <v>1E-3</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1">
+        <v>0.79591835</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="1"/>
+      <c r="L65" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="5"/>
@@ -1919,36 +2233,48 @@
       <c r="C66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="14">
+      <c r="B67" s="16">
         <v>1E-4</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1">
+        <v>0.69387759999999998</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="5"/>
@@ -1959,25 +2285,31 @@
       <c r="C68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -1992,11 +2324,11 @@
       <c r="O70" s="15"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
@@ -2016,24 +2348,24 @@
       <c r="T71" s="15"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="18" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="20" t="s">
+      <c r="L72" s="21" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="15"/>
@@ -2043,7 +2375,7 @@
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="11" t="s">
         <v>6</v>
       </c>
@@ -2082,24 +2414,30 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="16">
         <v>0.01</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="5"/>
@@ -2110,36 +2448,48 @@
       <c r="C75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="2"/>
+      <c r="H75" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="2"/>
+      <c r="L75" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="14">
+      <c r="B76" s="16">
         <v>1E-3</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="1"/>
+      <c r="L76" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="5"/>
@@ -2150,34 +2500,46 @@
       <c r="C77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="2"/>
+      <c r="H77" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="14">
+      <c r="B78" s="16">
         <v>1E-4</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>0.34693879999999999</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>0.38775510000000002</v>
+      </c>
       <c r="J78" s="1"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="1"/>
+      <c r="L78" s="1">
+        <v>0.20408164000000001</v>
+      </c>
       <c r="N78" s="1"/>
       <c r="O78" s="5"/>
     </row>
@@ -2187,36 +2549,48 @@
       <c r="C79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="E79" s="10"/>
       <c r="F79" s="8"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="2"/>
+      <c r="H79" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="8"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="M79" s="10"/>
       <c r="N79" s="8"/>
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="16">
         <v>0.01</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="23">
+        <v>0.44897959999999998</v>
+      </c>
       <c r="F80" s="9"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>0.57142859999999995</v>
+      </c>
       <c r="J80" s="9"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="1"/>
+      <c r="L80" s="23">
+        <v>0.57142859999999995</v>
+      </c>
       <c r="N80" s="9"/>
       <c r="O80" s="5"/>
     </row>
@@ -2226,36 +2600,48 @@
       <c r="C81" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="24">
+        <v>0.47619048000000003</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="8"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="I81" s="10"/>
       <c r="J81" s="8"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="24">
+        <v>0.38095240000000002</v>
+      </c>
       <c r="M81" s="10"/>
       <c r="N81" s="8"/>
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="14">
+      <c r="B82" s="16">
         <v>1E-3</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>0.61224489999999998</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>0.65306120000000001</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="1"/>
+      <c r="L82" s="1">
+        <v>0.67346936000000002</v>
+      </c>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="5"/>
@@ -2266,34 +2652,46 @@
       <c r="C83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="2">
+        <v>0.23809524000000001</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="8"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="8"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M83" s="2"/>
       <c r="N83" s="8"/>
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="14">
+      <c r="B84" s="16">
         <v>1E-4</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1">
+        <v>0.55102039999999997</v>
+      </c>
       <c r="F84" s="9"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>0.44897959999999998</v>
+      </c>
       <c r="J84" s="9"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="1"/>
+      <c r="L84" s="1">
+        <v>0.53061223000000002</v>
+      </c>
       <c r="N84" s="9"/>
       <c r="O84" s="5"/>
     </row>
@@ -2303,36 +2701,48 @@
       <c r="C85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="E85" s="10"/>
       <c r="F85" s="8"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <v>0.19047620000000001</v>
+      </c>
       <c r="I85" s="10"/>
       <c r="J85" s="8"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="2"/>
+      <c r="L85" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="M85" s="10"/>
       <c r="N85" s="8"/>
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="16">
         <v>0.01</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1">
+        <v>0.75510204000000003</v>
+      </c>
       <c r="F86" s="9"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="J86" s="9"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="1"/>
+      <c r="L86" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="N86" s="9"/>
       <c r="O86" s="5"/>
     </row>
@@ -2342,33 +2752,45 @@
       <c r="C87" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="2"/>
+      <c r="L87" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
-      <c r="B88" s="14">
+      <c r="B88" s="16">
         <v>1E-3</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>0.73469390000000001</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <v>0.77551020000000004</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="1"/>
+      <c r="L88" s="1">
+        <v>0.71428572999999995</v>
+      </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="5"/>
@@ -2379,36 +2801,48 @@
       <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2">
+        <v>4.7619050000000003E-2</v>
+      </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="2"/>
+      <c r="L89" s="2">
+        <v>9.5238100000000006E-2</v>
+      </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="5"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
-      <c r="B90" s="14">
+      <c r="B90" s="16">
         <v>1E-4</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1">
+        <v>0.63265305999999999</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>0.67346936000000002</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="1"/>
+      <c r="L90" s="1">
+        <v>0.57142859999999995</v>
+      </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="5"/>
@@ -2419,33 +2853,71 @@
       <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2">
+        <v>0.28571429999999998</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="2"/>
+      <c r="L91" s="2">
+        <v>0.14285714999999999</v>
+      </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A71:T71"/>
+    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="A25:T25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A26:C27"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A48:T48"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A47:O47"/>
     <mergeCell ref="A72:C73"/>
@@ -2462,50 +2934,18 @@
     <mergeCell ref="L49:O49"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A71:T71"/>
-    <mergeCell ref="A24:O24"/>
-    <mergeCell ref="A25:T25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A26:C27"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A48:T48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2521,9 +2961,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2540,7 +2981,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2558,7 +3000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="3" max="3" width="9.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
